--- a/TestData/ReadDataBasedOnCondition.xlsx
+++ b/TestData/ReadDataBasedOnCondition.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A2DEE0E-C2D6-40F1-85DC-D94D1EC032EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F80B56C5-2474-4749-BC4B-F1AF6B2BFB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="productInfo" sheetId="2" r:id="rId2"/>
     <sheet name="Prod" sheetId="3" r:id="rId3"/>
+    <sheet name="area" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N4"/>
+  <oleSize ref="A1:N12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>TC_ID</t>
   </si>
@@ -119,6 +120,24 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>AreaName</t>
+  </si>
+  <si>
+    <t>AreaCode</t>
+  </si>
+  <si>
+    <t>Khopoli</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>DL</t>
   </si>
 </sst>
 </file>
@@ -705,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153C6766-A488-4919-93AE-53EDF2721C0C}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:C29"/>
     </sheetView>
   </sheetViews>
@@ -879,4 +898,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79811CAB-AACF-4605-916D-1A03EE6C2D9D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>